--- a/gitdata/gdi_buff_5m_coei_TableToExcel.xlsx
+++ b/gitdata/gdi_buff_5m_coei_TableToExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronan\Documents\ArcGIS\Projects\senior project planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87031CB-EEB2-488E-A3DD-3974E973507C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F98897B-A33E-4B9E-BA5C-49D66F4C786E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3012" yWindow="1860" windowWidth="12324" windowHeight="9648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gdi_buff_5m_coei_TableToExcel" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>POINT_Y</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>BUFF_DIST</t>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>1071</t>
+  </si>
+  <si>
+    <t>gps</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1173" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -489,37 +491,37 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -22244,22 +22246,22 @@
         <v>679</v>
       </c>
       <c r="J680" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K680" s="2">
         <v>45066</v>
       </c>
       <c r="L680" t="s">
+        <v>17</v>
+      </c>
+      <c r="M680" t="s">
         <v>18</v>
       </c>
-      <c r="M680" t="s">
+      <c r="N680" t="s">
         <v>19</v>
       </c>
-      <c r="N680" t="s">
+      <c r="O680" t="s">
         <v>20</v>
-      </c>
-      <c r="O680" t="s">
-        <v>21</v>
       </c>
       <c r="P680">
         <v>3.394896944187225E-4</v>
@@ -38678,22 +38680,22 @@
         <v>1192</v>
       </c>
       <c r="J1193" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1193" s="2">
         <v>45075</v>
       </c>
       <c r="L1193" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1193" t="s">
         <v>18</v>
       </c>
-      <c r="M1193" t="s">
+      <c r="N1193" t="s">
         <v>19</v>
       </c>
-      <c r="N1193" t="s">
+      <c r="O1193" t="s">
         <v>20</v>
-      </c>
-      <c r="O1193" t="s">
-        <v>21</v>
       </c>
       <c r="P1193">
         <v>3.3949061039775639E-4</v>
@@ -44680,22 +44682,22 @@
         <v>1379</v>
       </c>
       <c r="J1380" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1380" s="2">
         <v>45084</v>
       </c>
       <c r="L1380" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1380" t="s">
         <v>18</v>
       </c>
-      <c r="M1380" t="s">
+      <c r="N1380" t="s">
         <v>19</v>
       </c>
-      <c r="N1380" t="s">
+      <c r="O1380" t="s">
         <v>20</v>
-      </c>
-      <c r="O1380" t="s">
-        <v>21</v>
       </c>
       <c r="P1380">
         <v>3.3949283848786979E-4</v>
